--- a/src/test/resources/Invoice.xlsx
+++ b/src/test/resources/Invoice.xlsx
@@ -11,7 +11,118 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica Neue Light"/>
+      </rPr>
+      <t>счет</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica Neue Light"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Helvetica Neue Medium"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Helvetica Neue Medium"/>
+      </rPr>
+      <t>8 123 456-78-90 +</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue Medium"/>
+      </rPr>
+      <t>no_reply@example.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Helvetica Neue Medium"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="12"/>
+        <rFont val="Helvetica Neue Medium"/>
+      </rPr>
+      <t> +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica Neue Medium"/>
+      </rPr>
+      <t>ул. Достоевского, д. 39, +г. Москва +127473</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue Light"/>
+      </rPr>
+      <t>Кому: Андрей Паршин +Должность +Название компании +ул. Достоевского, д. 39 +г. Москва, 127473 +Дата: 8.01.2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue Light"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue Light"/>
+      </rPr>
+      <t>Заголовок проекта: Название проекта +Описание проекта: Место ввода описания +ИНН: 12345 +Номер счета: 67890 +Срок оплаты: 30 дней +</t>
+    </r>
+  </si>
   <si>
     <t>Описание</t>
   </si>
@@ -49,9 +160,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="#,##0.00 [$₽-419]_);\(#,##0.00 [$₽-419]\)"/>
-    <numFmt numFmtId="60" formatCode="#,##0.00 [$₽-419]"/>
-    <numFmt numFmtId="61" formatCode="#,##0.00%_);\(#,##0.00%\)"/>
+    <numFmt numFmtId="59" formatCode="#,##0.00&quot; &quot;[$₽-419]&quot; &quot;;(#,##0.00&quot; &quot;[$₽-419])"/>
+    <numFmt numFmtId="60" formatCode="#,##0.00&quot; &quot;[$₽-419]"/>
+    <numFmt numFmtId="61" formatCode="#,##0.00%&quot; &quot;;(#,##0.00%)"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -65,14 +176,35 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="13"/>
       <color indexed="8"/>
+      <name val="Helvetica Neue Light"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="11"/>
+      <name val="Helvetica Neue Light"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Helvetica Neue Medium"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="13"/>
+      <name val="Helvetica Neue Medium"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="14"/>
       <name val="Helvetica Neue Medium"/>
     </font>
     <font>
       <b val="1"/>
       <sz val="10"/>
-      <color indexed="9"/>
+      <color indexed="16"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
@@ -81,29 +213,8 @@
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
-    <font>
-      <b val="1"/>
-      <sz val="13"/>
-      <color indexed="10"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color indexed="15"/>
-      <name val="Helvetica Neue Light"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="10"/>
-      <name val="Helvetica Neue Medium"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="16"/>
-      <name val="Helvetica Neue Medium"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,12 +223,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -127,148 +244,203 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="15"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="19"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="18"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="18"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="19"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="18"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="19"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
       </left>
       <right style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="19"/>
       </top>
       <bottom style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </left>
       <right style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="19"/>
       </top>
       <bottom style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="19"/>
       </top>
       <bottom style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </left>
       <right style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </right>
       <top style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </top>
       <bottom style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </left>
       <right style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </right>
       <top style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </top>
       <bottom style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </right>
       <top style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </top>
       <bottom style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </left>
       <right style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </right>
       <top style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -277,13 +449,13 @@
     </border>
     <border>
       <left style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </left>
       <right style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </right>
       <top style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -292,13 +464,13 @@
     </border>
     <border>
       <left style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </right>
       <top style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -307,55 +479,55 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </left>
       <right style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </left>
       <right style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </left>
       <right style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -367,10 +539,10 @@
     </border>
     <border>
       <left style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </left>
       <right style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -382,10 +554,10 @@
     </border>
     <border>
       <left style="dotted">
-        <color indexed="14"/>
+        <color indexed="20"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -395,104 +567,208 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="61" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="61" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -512,14 +788,18 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff444444"/>
+      <rgbColor rgb="ff357da1"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ff606060"/>
+      <rgbColor rgb="ffe3e3e3"/>
       <rgbColor rgb="fffefefe"/>
       <rgbColor rgb="ff357ca2"/>
-      <rgbColor rgb="ffe3e3e3"/>
       <rgbColor rgb="ffc7d2d8"/>
       <rgbColor rgb="ff7f7f7f"/>
       <rgbColor rgb="ffadadad"/>
-      <rgbColor rgb="ff434343"/>
-      <rgbColor rgb="ff5f5f5f"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -531,469 +811,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>137519</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>34544</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>365691</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="название компании"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="-19050" y="137519"/>
-          <a:ext cx="6219445" cy="228173"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="120000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="100"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="1" baseline="0" cap="all" i="0" spc="65" strike="noStrike" sz="1300" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:hueOff val="366345"/>
-                  <a:satOff val="11385"/>
-                  <a:lumOff val="-23239"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" baseline="0" cap="all" i="0" spc="65" strike="noStrike" sz="1300" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:hueOff val="366345"/>
-                  <a:satOff val="11385"/>
-                  <a:lumOff val="-23239"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Helvetica Neue"/>
-            </a:rPr>
-            <a:t>название компании</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>976947</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1511300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>3328352</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="счет…"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="-19050" y="976947"/>
-          <a:ext cx="1511300" cy="2351406"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="all" i="0" spc="36" strike="noStrike" sz="1800" u="none">
-              <a:solidFill>
-                <a:srgbClr val="444444"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Light"/>
-              <a:ea typeface="Helvetica Neue Light"/>
-              <a:cs typeface="Helvetica Neue Light"/>
-              <a:sym typeface="Helvetica Neue Light"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="all" i="0" spc="36" strike="noStrike" sz="1800" u="none">
-              <a:solidFill>
-                <a:srgbClr val="444444"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Light"/>
-              <a:ea typeface="Helvetica Neue Light"/>
-              <a:cs typeface="Helvetica Neue Light"/>
-              <a:sym typeface="Helvetica Neue Light"/>
-            </a:rPr>
-            <a:t>счет</a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="36" strike="noStrike" sz="1800" u="none">
-            <a:solidFill>
-              <a:srgbClr val="444444"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Light"/>
-            <a:ea typeface="Helvetica Neue Light"/>
-            <a:cs typeface="Helvetica Neue Light"/>
-            <a:sym typeface="Helvetica Neue Light"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="254000" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="120000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst>
-              <a:tab pos="635000" algn="l"/>
-            </a:tabLst>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="6F5F59"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Medium"/>
-              <a:ea typeface="Helvetica Neue Medium"/>
-              <a:cs typeface="Helvetica Neue Medium"/>
-              <a:sym typeface="Helvetica Neue Medium"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:hueOff val="366345"/>
-                <a:satOff val="11385"/>
-                <a:lumOff val="-23239"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="120000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="900"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:hueOff val="366345"/>
-                  <a:satOff val="11385"/>
-                  <a:lumOff val="-23239"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Medium"/>
-              <a:ea typeface="Helvetica Neue Medium"/>
-              <a:cs typeface="Helvetica Neue Medium"/>
-              <a:sym typeface="Helvetica Neue Medium"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:hueOff val="366345"/>
-                  <a:satOff val="11385"/>
-                  <a:lumOff val="-23239"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Medium"/>
-              <a:ea typeface="Helvetica Neue Medium"/>
-              <a:cs typeface="Helvetica Neue Medium"/>
-              <a:sym typeface="Helvetica Neue Medium"/>
-            </a:rPr>
-            <a:t>8 123 456-78-90</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:hueOff val="366345"/>
-                  <a:satOff val="11385"/>
-                  <a:lumOff val="-23239"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Medium"/>
-              <a:ea typeface="Helvetica Neue Medium"/>
-              <a:cs typeface="Helvetica Neue Medium"/>
-              <a:sym typeface="Helvetica Neue Medium"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:hueOff val="366345"/>
-                  <a:satOff val="11385"/>
-                  <a:lumOff val="-23239"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Medium"/>
-              <a:ea typeface="Helvetica Neue Medium"/>
-              <a:cs typeface="Helvetica Neue Medium"/>
-              <a:sym typeface="Helvetica Neue Medium"/>
-            </a:rPr>
-            <a:t>no_reply@example.com</a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:hueOff val="366345"/>
-                <a:satOff val="11385"/>
-                <a:lumOff val="-23239"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="120000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="900"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:hueOff val="366345"/>
-                  <a:satOff val="11385"/>
-                  <a:lumOff val="-23239"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Medium"/>
-              <a:ea typeface="Helvetica Neue Medium"/>
-              <a:cs typeface="Helvetica Neue Medium"/>
-              <a:sym typeface="Helvetica Neue Medium"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:hueOff val="366345"/>
-                  <a:satOff val="11385"/>
-                  <a:lumOff val="-23239"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Medium"/>
-              <a:ea typeface="Helvetica Neue Medium"/>
-              <a:cs typeface="Helvetica Neue Medium"/>
-              <a:sym typeface="Helvetica Neue Medium"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="606060"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Medium"/>
-              <a:ea typeface="Helvetica Neue Medium"/>
-              <a:cs typeface="Helvetica Neue Medium"/>
-              <a:sym typeface="Helvetica Neue Medium"/>
-            </a:rPr>
-            <a:t>ул. Достоевского, д. 39,</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="606060"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Medium"/>
-              <a:ea typeface="Helvetica Neue Medium"/>
-              <a:cs typeface="Helvetica Neue Medium"/>
-              <a:sym typeface="Helvetica Neue Medium"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="606060"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Medium"/>
-              <a:ea typeface="Helvetica Neue Medium"/>
-              <a:cs typeface="Helvetica Neue Medium"/>
-              <a:sym typeface="Helvetica Neue Medium"/>
-            </a:rPr>
-            <a:t>г. Москва</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="606060"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Medium"/>
-              <a:ea typeface="Helvetica Neue Medium"/>
-              <a:cs typeface="Helvetica Neue Medium"/>
-              <a:sym typeface="Helvetica Neue Medium"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="606060"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Medium"/>
-              <a:ea typeface="Helvetica Neue Medium"/>
-              <a:cs typeface="Helvetica Neue Medium"/>
-              <a:sym typeface="Helvetica Neue Medium"/>
-            </a:rPr>
-            <a:t>127473</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>50462</xdr:rowOff>
+      <xdr:rowOff>51732</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>936244</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>50463</xdr:rowOff>
+      <xdr:rowOff>51732</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Линия"/>
+        <xdr:cNvPr id="2" name="Линия"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="-1" y="8828067"/>
-          <a:ext cx="6181346" cy="2"/>
+        <a:xfrm>
+          <a:off x="-1" y="8829337"/>
+          <a:ext cx="6181346" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1001,11 +836,7 @@
         <a:noFill/>
         <a:ln w="12700" cap="flat">
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:hueOff val="366345"/>
-              <a:satOff val="11385"/>
-              <a:lumOff val="-23239"/>
-            </a:schemeClr>
+            <a:srgbClr val="367DA2"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="400000"/>
@@ -1025,75 +856,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>1598676</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>4377</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>929560</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>34543</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>164985</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Линия"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="0" y="50800"/>
-          <a:ext cx="6174661" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="31750" cap="flat">
-          <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:hueOff val="366345"/>
-              <a:satOff val="11385"/>
-              <a:lumOff val="-23239"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1617726</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>81279</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>15494</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>5714</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Благодарю за сотрудничество! С Вами очень приятно работать. Ваш следующий заказ будет отправлен в течение 30 дней.…"/>
+        <xdr:cNvPr id="3" name="Благодарю за сотрудничество! С Вами очень приятно работать. Ваш следующий заказ будет отправлен в течение 30 дней.…"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1617726" y="6057899"/>
-          <a:ext cx="4582669" cy="1197611"/>
+          <a:off x="1598675" y="5980997"/>
+          <a:ext cx="4620769" cy="1179149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1116,7 +897,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="120000"/>
             </a:lnSpc>
@@ -1192,7 +973,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="120000"/>
             </a:lnSpc>
@@ -1243,7 +1024,7 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" latinLnBrk="0">
             <a:lnSpc>
               <a:spcPct val="120000"/>
             </a:lnSpc>
@@ -1287,382 +1068,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1617726</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>992817</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>15494</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>3716238</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Кому: Андрей Паршин Должность Название компании ул. Достоевского, д. 39 г. Москва, 127473 Дата: 8.01.2020…"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1617726" y="992817"/>
-          <a:ext cx="4582669" cy="2723421"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="120000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="900"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Light"/>
-              <a:ea typeface="Helvetica Neue Light"/>
-              <a:cs typeface="Helvetica Neue Light"/>
-              <a:sym typeface="Helvetica Neue Light"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Light"/>
-              <a:ea typeface="Helvetica Neue Light"/>
-              <a:cs typeface="Helvetica Neue Light"/>
-              <a:sym typeface="Helvetica Neue Light"/>
-            </a:rPr>
-            <a:t>Кому: Андрей Паршин</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Light"/>
-              <a:ea typeface="Helvetica Neue Light"/>
-              <a:cs typeface="Helvetica Neue Light"/>
-              <a:sym typeface="Helvetica Neue Light"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Light"/>
-              <a:ea typeface="Helvetica Neue Light"/>
-              <a:cs typeface="Helvetica Neue Light"/>
-              <a:sym typeface="Helvetica Neue Light"/>
-            </a:rPr>
-            <a:t>Должность</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Light"/>
-              <a:ea typeface="Helvetica Neue Light"/>
-              <a:cs typeface="Helvetica Neue Light"/>
-              <a:sym typeface="Helvetica Neue Light"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Light"/>
-              <a:ea typeface="Helvetica Neue Light"/>
-              <a:cs typeface="Helvetica Neue Light"/>
-              <a:sym typeface="Helvetica Neue Light"/>
-            </a:rPr>
-            <a:t>Название компании</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Light"/>
-              <a:ea typeface="Helvetica Neue Light"/>
-              <a:cs typeface="Helvetica Neue Light"/>
-              <a:sym typeface="Helvetica Neue Light"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Light"/>
-              <a:ea typeface="Helvetica Neue Light"/>
-              <a:cs typeface="Helvetica Neue Light"/>
-              <a:sym typeface="Helvetica Neue Light"/>
-            </a:rPr>
-            <a:t>ул. Достоевского, д. 39</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Light"/>
-              <a:ea typeface="Helvetica Neue Light"/>
-              <a:cs typeface="Helvetica Neue Light"/>
-              <a:sym typeface="Helvetica Neue Light"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Light"/>
-              <a:ea typeface="Helvetica Neue Light"/>
-              <a:cs typeface="Helvetica Neue Light"/>
-              <a:sym typeface="Helvetica Neue Light"/>
-            </a:rPr>
-            <a:t>г. Москва, 127473</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Light"/>
-              <a:ea typeface="Helvetica Neue Light"/>
-              <a:cs typeface="Helvetica Neue Light"/>
-              <a:sym typeface="Helvetica Neue Light"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Light"/>
-              <a:ea typeface="Helvetica Neue Light"/>
-              <a:cs typeface="Helvetica Neue Light"/>
-              <a:sym typeface="Helvetica Neue Light"/>
-            </a:rPr>
-            <a:t>Дата: 8.01.2020</a:t>
-          </a:r>
-          <a:endParaRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Light"/>
-            <a:ea typeface="Helvetica Neue Light"/>
-            <a:cs typeface="Helvetica Neue Light"/>
-            <a:sym typeface="Helvetica Neue Light"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="120000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="900"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Light"/>
-              <a:ea typeface="Helvetica Neue Light"/>
-              <a:cs typeface="Helvetica Neue Light"/>
-              <a:sym typeface="Helvetica Neue Light"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Light"/>
-              <a:ea typeface="Helvetica Neue Light"/>
-              <a:cs typeface="Helvetica Neue Light"/>
-              <a:sym typeface="Helvetica Neue Light"/>
-            </a:rPr>
-            <a:t>Заголовок проекта: Название проекта</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Light"/>
-              <a:ea typeface="Helvetica Neue Light"/>
-              <a:cs typeface="Helvetica Neue Light"/>
-              <a:sym typeface="Helvetica Neue Light"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Light"/>
-              <a:ea typeface="Helvetica Neue Light"/>
-              <a:cs typeface="Helvetica Neue Light"/>
-              <a:sym typeface="Helvetica Neue Light"/>
-            </a:rPr>
-            <a:t>Описание проекта: Место ввода описания</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Light"/>
-              <a:ea typeface="Helvetica Neue Light"/>
-              <a:cs typeface="Helvetica Neue Light"/>
-              <a:sym typeface="Helvetica Neue Light"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Light"/>
-              <a:ea typeface="Helvetica Neue Light"/>
-              <a:cs typeface="Helvetica Neue Light"/>
-              <a:sym typeface="Helvetica Neue Light"/>
-            </a:rPr>
-            <a:t>ИНН: 12345</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Light"/>
-              <a:ea typeface="Helvetica Neue Light"/>
-              <a:cs typeface="Helvetica Neue Light"/>
-              <a:sym typeface="Helvetica Neue Light"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Light"/>
-              <a:ea typeface="Helvetica Neue Light"/>
-              <a:cs typeface="Helvetica Neue Light"/>
-              <a:sym typeface="Helvetica Neue Light"/>
-            </a:rPr>
-            <a:t>Номер счета: 67890</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Light"/>
-              <a:ea typeface="Helvetica Neue Light"/>
-              <a:cs typeface="Helvetica Neue Light"/>
-              <a:sym typeface="Helvetica Neue Light"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Light"/>
-              <a:ea typeface="Helvetica Neue Light"/>
-              <a:cs typeface="Helvetica Neue Light"/>
-              <a:sym typeface="Helvetica Neue Light"/>
-            </a:rPr>
-            <a:t>Срок оплаты: 30 дней</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Helvetica Neue Light"/>
-              <a:ea typeface="Helvetica Neue Light"/>
-              <a:cs typeface="Helvetica Neue Light"/>
-              <a:sym typeface="Helvetica Neue Light"/>
-            </a:rPr>
-          </a:br>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1677,10 +1082,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="535F65"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="F4F2EF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="85B9C9"/>
@@ -1709,9 +1114,9 @@
     </a:clrScheme>
     <a:fontScheme name="02_Invoice">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue UltraLight"/>
-        <a:ea typeface="Helvetica Neue UltraLight"/>
-        <a:cs typeface="Helvetica Neue UltraLight"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Helvetica Neue"/>
@@ -1798,13 +1203,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="12700" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="60000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -1863,15 +1262,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:hueOff val="366345"/>
-            <a:satOff val="11385"/>
-            <a:lumOff val="-23239"/>
-          </a:schemeClr>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1880,27 +1278,27 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="120000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="900"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -2155,16 +1553,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:hueOff val="366345"/>
-              <a:satOff val="11385"/>
-              <a:lumOff val="-23239"/>
-            </a:schemeClr>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2455,34 +1849,34 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="120000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="900"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Light"/>
-            <a:ea typeface="Helvetica Neue Light"/>
-            <a:cs typeface="Helvetica Neue Light"/>
-            <a:sym typeface="Helvetica Neue Light"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2733,127 +2127,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:E9"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.9007" defaultRowHeight="20.05" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="30.8333" defaultRowHeight="20.05" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="21.3516" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.1719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.71094" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.67188" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.6719" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.3516" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="30.9219" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="30.8516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="295" customHeight="1"/>
+    <row r="1" ht="295" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+    </row>
     <row r="2" ht="32.05" customHeight="1">
-      <c r="B2" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="3">
+      <c r="A2" s="6"/>
+      <c r="B2" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="C2" t="s" s="8">
         <v>3</v>
       </c>
+      <c r="D2" t="s" s="8">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s" s="9">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" ht="20.3" customHeight="1">
-      <c r="B3" t="s" s="5">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="A3" s="6"/>
+      <c r="B3" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12">
         <v>55</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="13">
         <v>1000</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="14">
         <f>C3*D3</f>
         <v>55000</v>
       </c>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" ht="20.45" customHeight="1">
-      <c r="B4" t="s" s="9">
-        <v>5</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="A4" s="6"/>
+      <c r="B4" t="s" s="15">
+        <v>7</v>
+      </c>
+      <c r="C4" s="16">
         <v>13</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="17">
         <v>900</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="18">
         <f>C4*D4</f>
         <v>11700</v>
       </c>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" ht="20.45" customHeight="1">
-      <c r="B5" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="A5" s="6"/>
+      <c r="B5" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="C5" s="16">
         <v>25</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="19">
         <v>500</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="20">
         <f>C5*D5</f>
         <v>12500</v>
       </c>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" ht="20.55" customHeight="1">
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" ht="20.55" customHeight="1">
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" t="s" s="21">
-        <v>7</v>
-      </c>
-      <c r="E7" s="22">
+      <c r="A7" s="6"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" t="s" s="27">
+        <v>9</v>
+      </c>
+      <c r="E7" s="28">
         <f>SUM(E3:E6)</f>
         <v>79200</v>
       </c>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" ht="20.55" customHeight="1">
-      <c r="B8" s="23"/>
-      <c r="C8" t="s" s="24">
-        <v>8</v>
-      </c>
-      <c r="D8" s="25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="29"/>
+      <c r="C8" t="s" s="30">
+        <v>10</v>
+      </c>
+      <c r="D8" s="31">
         <v>0.2</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="32">
         <f>E7*D8</f>
         <v>15840</v>
       </c>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" ht="20.7" customHeight="1">
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" t="s" s="29">
-        <v>9</v>
-      </c>
-      <c r="E9" s="30">
+      <c r="A9" s="6"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" t="s" s="35">
+        <v>11</v>
+      </c>
+      <c r="E9" s="36">
         <f>SUM(E7:E8)</f>
         <v>95040</v>
       </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" s="37"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="39"/>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" s="37"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="39"/>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" s="37"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="39"/>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" s="37"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="39"/>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" s="37"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="39"/>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" s="37"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="39"/>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" s="37"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="39"/>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" s="37"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="39"/>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" s="37"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="39"/>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="37"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="39"/>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" location="" tooltip="" display="no_reply@example.com"/>
+  </hyperlinks>
   <pageMargins left="0.83" right="0.83" top="0.25" bottom="0.75" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>